--- a/DMSNewVSale_2025-11-30_19-36.xlsx
+++ b/DMSNewVSale_2025-11-30_19-36.xlsx
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>20.00</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>334.0000</t>
   </si>
   <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
@@ -1826,7 +1835,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1836,11 +1845,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>27</v>
@@ -1852,14 +1861,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1869,11 +1878,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>27</v>
@@ -1885,20 +1894,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1925,13 +1934,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1942,7 +1951,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1958,7 +1967,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1968,11 +1977,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>15</v>
@@ -1984,20 +1993,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2008,7 +2017,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2024,13 +2033,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2041,7 +2050,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2057,7 +2066,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2067,11 +2076,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>15</v>
@@ -2083,14 +2092,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2107,7 +2116,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2123,7 +2132,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,7 +2165,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2166,14 +2175,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2189,7 +2198,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2199,11 +2208,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>15</v>
@@ -2222,7 +2231,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2232,11 +2241,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>15</v>
@@ -2248,31 +2257,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2288,24 +2297,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2314,14 +2323,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,13 +2363,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2371,7 +2380,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2387,13 +2396,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2401,7 +2410,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2413,14 +2422,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2430,11 +2439,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2446,7 +2455,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2463,14 +2472,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2486,7 +2495,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2512,20 +2521,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2536,7 +2545,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2552,7 +2561,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2628,11 +2637,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>27</v>
@@ -2644,14 +2653,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2661,11 +2670,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2677,14 +2686,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2694,11 +2703,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2734,7 +2743,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2750,7 +2759,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2776,14 +2785,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2793,11 +2802,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -2809,14 +2818,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2826,11 +2835,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2842,14 +2851,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2859,11 +2868,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -2882,7 +2891,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2892,11 +2901,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2908,14 +2917,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2941,14 +2950,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2974,14 +2983,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2991,51 +3000,84 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
       </c>
     </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="N62" s="13">
-        <v>3496.6750000000002</v>
-      </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>179</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>180</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>181</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>11</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>49</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>93</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="N63" s="13">
+        <v>3830.6750000000002</v>
+      </c>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>182</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>183</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>184</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3319,10 +3361,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DMSNewVSale_2025-11-30_19-36.xlsx
+++ b/DMSNewVSale_2025-11-30_19-36.xlsx
@@ -182,364 +182,373 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>24.4800</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>334.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVY-A SYRUP</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>KOLAGRA SUN SCREEN 1+1</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>299.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>PIRLOME 30 CAPS</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TELOFILL SUNSCREEN عرض</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>VENTOLIN 2MG/5ML SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7979:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>بامبرز رقم 5</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>400.0000</t>
+  </si>
+  <si>
+    <t>برفان يارا كوبي</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم تفتيح بكيني باتر 500 مل </t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>لونا مرطب كبير CREAM</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>48.0000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>24.4800</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>334.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>IVY-A SYRUP</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>KOLAGRA SUN SCREEN 1+1</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>299.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>11:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>PIRLOME 30 CAPS</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TELOFILL SUNSCREEN عرض</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>350.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>VENTOLIN 2MG/5ML SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7979:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>بامبرز رقم 5</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>400.0000</t>
-  </si>
-  <si>
-    <t>برفان يارا كوبي</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>49:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول العنايه بالبشره</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم تفتيح بكيني باتر 500 مل </t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>لونا مرطب كبير CREAM</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
   </si>
   <si>
     <t>مرهم راسب ابيض</t>
@@ -1588,7 +1597,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2198,7 +2207,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2208,7 +2217,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2224,7 +2233,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2241,11 +2250,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>15</v>
@@ -2257,7 +2266,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2278,7 +2287,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>15</v>
@@ -2290,7 +2299,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2307,11 +2316,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2323,14 +2332,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2340,11 +2349,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>15</v>
@@ -2356,7 +2365,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2373,11 +2382,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>15</v>
@@ -2389,7 +2398,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2406,11 +2415,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2422,7 +2431,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2439,7 +2448,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2455,7 +2464,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2488,7 +2497,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2505,11 +2514,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>15</v>
@@ -2521,14 +2530,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2538,11 +2547,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>11</v>
@@ -2554,7 +2563,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2567,15 +2576,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2587,14 +2596,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2604,11 +2613,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -2620,7 +2629,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2637,11 +2646,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>27</v>
@@ -2653,7 +2662,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2670,11 +2679,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -2686,14 +2695,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2703,11 +2712,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -2726,7 +2735,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2736,11 +2745,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>27</v>
@@ -2752,7 +2761,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2769,14 +2778,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2785,14 +2794,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2835,11 +2844,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -2858,7 +2867,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2884,14 +2893,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2901,11 +2910,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2917,14 +2926,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2934,11 +2943,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -2950,14 +2959,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2967,14 +2976,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2983,14 +2992,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3016,14 +3025,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3033,51 +3042,84 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>184</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>11</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>49</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>93</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>94</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" ht="25.5" customHeight="1">
-      <c r="N63" s="13">
-        <v>3830.6750000000002</v>
-      </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>182</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>183</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>184</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" ht="26.25" customHeight="1">
+      <c r="N64" s="13">
+        <v>3942.5149999999999</v>
+      </c>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>185</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>186</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>187</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3366,10 +3408,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
